--- a/Applications/LoveBabbar Questions.xlsx
+++ b/Applications/LoveBabbar Questions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView activeTab="0" windowHeight="16200" windowWidth="27640" xWindow="780" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}" yWindow="940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1427,71 +1427,84 @@
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
+  <si>
+    <t>yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" count="8" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="8">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF0563C1"/>
+      <sz val="12"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri (Body)"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF0563C1"/>
+      <sz val="16"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1505,16 +1518,26 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1531,15 +1554,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1854,11 +1877,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1868,7 +1890,7 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row ht="26" r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1900,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row ht="21" r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1894,7 +1916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row ht="21" r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1902,10 +1924,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row ht="21" r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1913,10 +1935,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row ht="21" r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1924,10 +1946,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row ht="21" r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1935,10 +1957,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row ht="21" r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1946,10 +1968,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row ht="21" r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row ht="21" r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row ht="21" r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1982,7 +2004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row ht="21" r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +2015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row ht="21" r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row ht="21" r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row ht="21" r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2026,7 +2048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row ht="21" r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row ht="21" r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row ht="21" r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row ht="21" r="21" spans="1:3">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2070,7 +2092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row ht="21" r="22" spans="1:3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row ht="21" r="23" spans="1:3">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row ht="21" r="24" spans="1:3">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2103,7 +2125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row ht="21" r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2114,7 +2136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row ht="21" r="26" spans="1:3">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2125,7 +2147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row ht="21" r="27" spans="1:3">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2136,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row ht="21" r="28" spans="1:3">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row ht="21" r="29" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2158,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row ht="21" r="30" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row ht="21" r="31" spans="1:3">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row ht="21" r="32" spans="1:3">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row ht="21" r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2202,7 +2224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row ht="21" r="34" spans="1:3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2213,7 +2235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21">
+    <row ht="21" r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2224,7 +2246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
+    <row ht="21" r="36" spans="1:3">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2235,7 +2257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row ht="21" r="37" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2246,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
+    <row ht="21" r="38" spans="1:3">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2257,7 +2279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row ht="21" r="39" spans="1:3">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row ht="21" r="40" spans="1:3">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2279,7 +2301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row ht="21" r="41" spans="1:3">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2290,20 +2312,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row ht="21" r="42" spans="1:3">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row ht="21" r="43" spans="1:3">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row ht="21" r="44" spans="1:3">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2314,7 +2336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row ht="21" r="45" spans="1:3">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2325,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row ht="21" r="46" spans="1:3">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2336,7 +2358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row ht="21" r="47" spans="1:3">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2347,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row ht="21" r="48" spans="1:3">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2358,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row ht="21" r="49" spans="1:3">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2369,7 +2391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row ht="21" r="50" spans="1:3">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2380,7 +2402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row ht="21" r="51" spans="1:3">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2391,7 +2413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
+    <row ht="21" r="52" spans="1:3">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2402,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row ht="21" r="53" spans="1:3">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2413,12 +2435,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row ht="21" r="55" spans="1:3">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row ht="21" r="56" spans="1:3">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2429,7 +2451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row ht="21" r="57" spans="1:3">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2440,7 +2462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
+    <row ht="21" r="58" spans="1:3">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2451,7 +2473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21">
+    <row ht="21" r="59" spans="1:3">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2462,7 +2484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row ht="21" r="60" spans="1:3">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2473,7 +2495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21">
+    <row ht="21" r="61" spans="1:3">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2484,7 +2506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row ht="21" r="62" spans="1:3">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2495,7 +2517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row ht="21" r="63" spans="1:3">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2506,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row ht="21" r="64" spans="1:3">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2517,7 +2539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21">
+    <row ht="21" r="65" spans="1:3">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2528,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21">
+    <row ht="21" r="66" spans="1:3">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2539,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21">
+    <row ht="21" r="67" spans="1:3">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2550,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21">
+    <row ht="21" r="68" spans="1:3">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2561,7 +2583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21">
+    <row ht="21" r="69" spans="1:3">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2572,7 +2594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21">
+    <row ht="21" r="70" spans="1:3">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2583,7 +2605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21">
+    <row ht="21" r="71" spans="1:3">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2594,7 +2616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21">
+    <row ht="21" r="72" spans="1:3">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2605,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row ht="21" r="73" spans="1:3">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2616,7 +2638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21">
+    <row ht="21" r="74" spans="1:3">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2627,7 +2649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row ht="21" r="75" spans="1:3">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2638,7 +2660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row ht="21" r="76" spans="1:3">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2649,7 +2671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row ht="21" r="77" spans="1:3">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2660,7 +2682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row ht="21" r="78" spans="1:3">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2671,7 +2693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row ht="21" r="79" spans="1:3">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2682,7 +2704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row ht="21" r="80" spans="1:3">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2693,7 +2715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row ht="21" r="81" spans="1:3">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2704,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row ht="21" r="82" spans="1:3">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2715,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21">
+    <row ht="21" r="83" spans="1:3">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2726,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21">
+    <row ht="21" r="84" spans="1:3">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2737,7 +2759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21">
+    <row ht="21" r="85" spans="1:3">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2748,7 +2770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21">
+    <row ht="21" r="86" spans="1:3">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2759,7 +2781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21">
+    <row ht="21" r="87" spans="1:3">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2770,7 +2792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21">
+    <row ht="21" r="88" spans="1:3">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2781,7 +2803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
+    <row ht="21" r="89" spans="1:3">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2792,7 +2814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21">
+    <row ht="21" r="90" spans="1:3">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2803,7 +2825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21">
+    <row ht="21" r="91" spans="1:3">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2814,7 +2836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21">
+    <row ht="21" r="92" spans="1:3">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2825,7 +2847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21">
+    <row ht="21" r="93" spans="1:3">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -2836,7 +2858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21">
+    <row ht="21" r="94" spans="1:3">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -2847,7 +2869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21">
+    <row ht="21" r="95" spans="1:3">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -2858,7 +2880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21">
+    <row ht="21" r="96" spans="1:3">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -2869,7 +2891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row ht="21" r="97" spans="1:3">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -2880,7 +2902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row ht="21" r="98" spans="1:3">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -2891,12 +2913,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row ht="21" r="100" spans="1:3">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row ht="21" r="101" spans="1:3">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -2907,7 +2929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row ht="21" r="102" spans="1:3">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -2918,7 +2940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row ht="21" r="103" spans="1:3">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -2929,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
+    <row ht="21" r="104" spans="1:3">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -2940,7 +2962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row ht="21" r="105" spans="1:3">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -2951,7 +2973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row ht="21" r="106" spans="1:3">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -2962,7 +2984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row ht="21" r="107" spans="1:3">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -2973,7 +2995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row ht="21" r="108" spans="1:3">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -2984,7 +3006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row ht="21" r="109" spans="1:3">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -2995,7 +3017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row ht="21" r="110" spans="1:3">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3006,7 +3028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row ht="21" r="111" spans="1:3">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3017,7 +3039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row ht="21" r="112" spans="1:3">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3028,7 +3050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21">
+    <row ht="21" r="113" spans="1:3">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3039,7 +3061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21">
+    <row ht="21" r="114" spans="1:3">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3050,7 +3072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21">
+    <row ht="21" r="115" spans="1:3">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3061,7 +3083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21">
+    <row ht="21" r="116" spans="1:3">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3072,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21">
+    <row ht="21" r="117" spans="1:3">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3083,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21">
+    <row ht="21" r="118" spans="1:3">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3094,7 +3116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21">
+    <row ht="21" r="119" spans="1:3">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3105,7 +3127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21">
+    <row ht="21" r="120" spans="1:3">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3116,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21">
+    <row ht="21" r="121" spans="1:3">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3127,7 +3149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21">
+    <row ht="21" r="122" spans="1:3">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3138,7 +3160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21">
+    <row ht="21" r="123" spans="1:3">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3149,7 +3171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21">
+    <row ht="21" r="124" spans="1:3">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3160,7 +3182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21">
+    <row ht="21" r="125" spans="1:3">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3171,7 +3193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21">
+    <row ht="21" r="126" spans="1:3">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3182,7 +3204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21">
+    <row ht="21" r="127" spans="1:3">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3193,7 +3215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
+    <row ht="21" r="128" spans="1:3">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3204,7 +3226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row ht="21" r="129" spans="1:3">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3215,7 +3237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row ht="21" r="130" spans="1:3">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3226,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row ht="21" r="131" spans="1:3">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3237,7 +3259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row ht="21" r="132" spans="1:3">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3248,7 +3270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row ht="21" r="133" spans="1:3">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3259,7 +3281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
+    <row ht="21" r="134" spans="1:3">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3270,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
+    <row ht="21" r="135" spans="1:3">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3281,7 +3303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row ht="21" r="136" spans="1:3">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3292,11 +3314,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
+    <row ht="21" r="138" spans="1:3">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row ht="21" r="139" spans="1:3">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
@@ -3307,7 +3329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
+    <row ht="21" r="140" spans="1:3">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3318,7 +3340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
+    <row ht="21" r="141" spans="1:3">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3329,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
+    <row ht="21" r="142" spans="1:3">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3340,7 +3362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
+    <row ht="21" r="143" spans="1:3">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3351,7 +3373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21">
+    <row ht="21" r="144" spans="1:3">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3362,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21">
+    <row ht="21" r="145" spans="1:3">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3373,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row ht="21" r="146" spans="1:3">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3384,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21">
+    <row ht="21" r="147" spans="1:3">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3395,7 +3417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21">
+    <row ht="21" r="148" spans="1:3">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3406,7 +3428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row ht="21" r="149" spans="1:3">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3417,7 +3439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row ht="21" r="150" spans="1:3">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3428,7 +3450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row ht="21" r="151" spans="1:3">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3439,7 +3461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row ht="21" r="152" spans="1:3">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3450,7 +3472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row ht="21" r="153" spans="1:3">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3461,7 +3483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row ht="21" r="154" spans="1:3">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3472,7 +3494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row ht="21" r="155" spans="1:3">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3483,7 +3505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row ht="21" r="156" spans="1:3">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3494,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row ht="21" r="157" spans="1:3">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3505,7 +3527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row ht="21" r="158" spans="1:3">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3516,7 +3538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row ht="21" r="159" spans="1:3">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3527,7 +3549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row ht="21" r="160" spans="1:3">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3538,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21">
+    <row ht="21" r="161" spans="1:3">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3549,7 +3571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21">
+    <row ht="21" r="162" spans="1:3">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3560,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21">
+    <row ht="21" r="163" spans="1:3">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3571,7 +3593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21">
+    <row ht="21" r="164" spans="1:3">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3582,7 +3604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21">
+    <row ht="21" r="165" spans="1:3">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3593,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21">
+    <row ht="21" r="166" spans="1:3">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3604,7 +3626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21">
+    <row ht="21" r="167" spans="1:3">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -3615,7 +3637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21">
+    <row ht="21" r="168" spans="1:3">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -3626,7 +3648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21">
+    <row ht="21" r="169" spans="1:3">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -3637,7 +3659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21">
+    <row ht="21" r="170" spans="1:3">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -3648,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21">
+    <row ht="21" r="171" spans="1:3">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -3659,7 +3681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21">
+    <row ht="21" r="172" spans="1:3">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -3670,7 +3692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21">
+    <row ht="21" r="173" spans="1:3">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -3681,7 +3703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21">
+    <row ht="21" r="174" spans="1:3">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -3692,11 +3714,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21">
+    <row ht="21" r="176" spans="1:3">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row ht="21" r="177" spans="1:3">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -3707,7 +3729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21">
+    <row ht="21" r="178" spans="1:3">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3718,7 +3740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21">
+    <row ht="21" r="179" spans="1:3">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3729,7 +3751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21">
+    <row ht="21" r="180" spans="1:3">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3740,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21">
+    <row ht="21" r="181" spans="1:3">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3751,7 +3773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21">
+    <row ht="21" r="182" spans="1:3">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3762,7 +3784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21">
+    <row ht="21" r="183" spans="1:3">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3773,7 +3795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21">
+    <row ht="21" r="184" spans="1:3">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3784,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21">
+    <row ht="21" r="185" spans="1:3">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3795,7 +3817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21">
+    <row ht="21" r="186" spans="1:3">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3806,7 +3828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21">
+    <row ht="21" r="187" spans="1:3">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3817,7 +3839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21">
+    <row ht="21" r="188" spans="1:3">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -3828,7 +3850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21">
+    <row ht="21" r="189" spans="1:3">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -3839,7 +3861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21">
+    <row ht="21" r="190" spans="1:3">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -3850,7 +3872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21">
+    <row ht="21" r="191" spans="1:3">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3861,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21">
+    <row ht="21" r="192" spans="1:3">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -3872,7 +3894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21">
+    <row ht="21" r="193" spans="1:3">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -3883,7 +3905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21">
+    <row ht="21" r="194" spans="1:3">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -3894,7 +3916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21">
+    <row ht="21" r="195" spans="1:3">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -3905,7 +3927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21">
+    <row ht="21" r="196" spans="1:3">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -3916,7 +3938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21">
+    <row ht="21" r="197" spans="1:3">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -3927,7 +3949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row ht="21" r="198" spans="1:3">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -3938,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21">
+    <row ht="21" r="199" spans="1:3">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -3949,7 +3971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21">
+    <row ht="21" r="200" spans="1:3">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -3960,7 +3982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21">
+    <row ht="21" r="201" spans="1:3">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -3971,7 +3993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row ht="21" r="202" spans="1:3">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -3982,7 +4004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row ht="21" r="203" spans="1:3">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -3993,7 +4015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row ht="21" r="204" spans="1:3">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4004,7 +4026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row ht="21" r="205" spans="1:3">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4015,7 +4037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row ht="21" r="206" spans="1:3">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4026,7 +4048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row ht="21" r="207" spans="1:3">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4037,7 +4059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row ht="21" r="208" spans="1:3">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4048,7 +4070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21">
+    <row ht="21" r="209" spans="1:3">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4059,7 +4081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21">
+    <row ht="21" r="210" spans="1:3">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4070,7 +4092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21">
+    <row ht="21" r="211" spans="1:3">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4081,17 +4103,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21">
+    <row ht="21" r="212" spans="1:3">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
+    <row ht="21" r="213" spans="1:3">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row ht="21" r="214" spans="1:3">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4102,7 +4124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21">
+    <row ht="21" r="215" spans="1:3">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4113,7 +4135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21">
+    <row ht="21" r="216" spans="1:3">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4124,7 +4146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21">
+    <row ht="21" r="217" spans="1:3">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4135,7 +4157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row ht="21" r="218" spans="1:3">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4146,7 +4168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21">
+    <row ht="21" r="219" spans="1:3">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4157,7 +4179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21">
+    <row ht="21" r="220" spans="1:3">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4168,7 +4190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21">
+    <row ht="21" r="221" spans="1:3">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4179,7 +4201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row ht="21" r="222" spans="1:3">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4190,7 +4212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21">
+    <row ht="21" r="223" spans="1:3">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4201,7 +4223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21">
+    <row ht="21" r="224" spans="1:3">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4212,7 +4234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21">
+    <row ht="21" r="225" spans="1:3">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4223,7 +4245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21">
+    <row ht="21" r="226" spans="1:3">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4234,7 +4256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21">
+    <row ht="21" r="227" spans="1:3">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4245,7 +4267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row ht="21" r="228" spans="1:3">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4256,7 +4278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row ht="21" r="229" spans="1:3">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4267,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row ht="21" r="230" spans="1:3">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4278,7 +4300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
+    <row ht="21" r="231" spans="1:3">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4289,7 +4311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21">
+    <row ht="21" r="232" spans="1:3">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4300,7 +4322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21">
+    <row ht="21" r="233" spans="1:3">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4311,7 +4333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21">
+    <row ht="21" r="234" spans="1:3">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4322,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21">
+    <row ht="21" r="235" spans="1:3">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4333,15 +4355,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21">
+    <row ht="21" r="236" spans="1:3">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row ht="21" r="237" spans="1:3">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row ht="21" r="238" spans="1:3">
       <c r="A238" s="5" t="s">
         <v>230</v>
       </c>
@@ -4352,7 +4374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21">
+    <row ht="21" r="239" spans="1:3">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -4363,7 +4385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21">
+    <row ht="21" r="240" spans="1:3">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
@@ -4374,7 +4396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21">
+    <row ht="21" r="241" spans="1:3">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -4385,7 +4407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21">
+    <row ht="21" r="242" spans="1:3">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
@@ -4396,7 +4418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21">
+    <row ht="21" r="243" spans="1:3">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
@@ -4407,7 +4429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21">
+    <row ht="21" r="244" spans="1:3">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
@@ -4418,7 +4440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21">
+    <row ht="21" r="245" spans="1:3">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
@@ -4429,7 +4451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21">
+    <row ht="21" r="246" spans="1:3">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
@@ -4440,7 +4462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21">
+    <row ht="21" r="247" spans="1:3">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
@@ -4451,7 +4473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21">
+    <row ht="21" r="248" spans="1:3">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
@@ -4462,7 +4484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21">
+    <row ht="21" r="249" spans="1:3">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
@@ -4473,7 +4495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21">
+    <row ht="21" r="250" spans="1:3">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
@@ -4484,7 +4506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21">
+    <row ht="21" r="251" spans="1:3">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
@@ -4495,7 +4517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21">
+    <row ht="21" r="252" spans="1:3">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
@@ -4506,7 +4528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21">
+    <row ht="21" r="253" spans="1:3">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
@@ -4517,7 +4539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21">
+    <row ht="21" r="254" spans="1:3">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
@@ -4528,7 +4550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21">
+    <row ht="21" r="255" spans="1:3">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
@@ -4539,7 +4561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21">
+    <row ht="21" r="256" spans="1:3">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
@@ -4550,7 +4572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21">
+    <row ht="21" r="257" spans="1:3">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
@@ -4561,7 +4583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21">
+    <row ht="21" r="258" spans="1:3">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
@@ -4572,7 +4594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21">
+    <row ht="21" r="259" spans="1:3">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
@@ -4583,7 +4605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21">
+    <row ht="21" r="260" spans="1:3">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
@@ -4594,7 +4616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21">
+    <row ht="21" r="261" spans="1:3">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
@@ -4605,7 +4627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21">
+    <row ht="21" r="262" spans="1:3">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
@@ -4616,7 +4638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21">
+    <row ht="21" r="263" spans="1:3">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
@@ -4627,7 +4649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21">
+    <row ht="21" r="264" spans="1:3">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
@@ -4638,7 +4660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21">
+    <row ht="21" r="265" spans="1:3">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
@@ -4649,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21">
+    <row ht="21" r="266" spans="1:3">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -4660,7 +4682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21">
+    <row ht="21" r="267" spans="1:3">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
@@ -4671,7 +4693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21">
+    <row ht="21" r="268" spans="1:3">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
@@ -4682,7 +4704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21">
+    <row ht="21" r="269" spans="1:3">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
@@ -4693,7 +4715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21">
+    <row ht="21" r="270" spans="1:3">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
@@ -4704,7 +4726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21">
+    <row ht="21" r="271" spans="1:3">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
@@ -4715,7 +4737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21">
+    <row ht="21" r="272" spans="1:3">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
@@ -4726,15 +4748,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21">
+    <row ht="21" r="273" spans="1:3">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row ht="21" r="274" spans="1:3">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:3" ht="21">
+    <row ht="21" r="275" spans="1:3">
       <c r="A275" s="5" t="s">
         <v>265</v>
       </c>
@@ -4745,7 +4767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21">
+    <row ht="21" r="276" spans="1:3">
       <c r="A276" s="5" t="s">
         <v>265</v>
       </c>
@@ -4756,7 +4778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21">
+    <row ht="21" r="277" spans="1:3">
       <c r="A277" s="5" t="s">
         <v>265</v>
       </c>
@@ -4767,7 +4789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21">
+    <row ht="21" r="278" spans="1:3">
       <c r="A278" s="5" t="s">
         <v>265</v>
       </c>
@@ -4778,7 +4800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21">
+    <row ht="21" r="279" spans="1:3">
       <c r="A279" s="5" t="s">
         <v>265</v>
       </c>
@@ -4789,7 +4811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21">
+    <row ht="21" r="280" spans="1:3">
       <c r="A280" s="5" t="s">
         <v>265</v>
       </c>
@@ -4800,7 +4822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21">
+    <row ht="21" r="281" spans="1:3">
       <c r="A281" s="5" t="s">
         <v>265</v>
       </c>
@@ -4811,7 +4833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21">
+    <row ht="21" r="282" spans="1:3">
       <c r="A282" s="5" t="s">
         <v>265</v>
       </c>
@@ -4822,7 +4844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21">
+    <row ht="21" r="283" spans="1:3">
       <c r="A283" s="5" t="s">
         <v>265</v>
       </c>
@@ -4833,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21">
+    <row ht="21" r="284" spans="1:3">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
@@ -4844,7 +4866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21">
+    <row ht="21" r="285" spans="1:3">
       <c r="A285" s="5" t="s">
         <v>265</v>
       </c>
@@ -4855,7 +4877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21">
+    <row ht="21" r="286" spans="1:3">
       <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
@@ -4866,7 +4888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21">
+    <row ht="21" r="287" spans="1:3">
       <c r="A287" s="5" t="s">
         <v>265</v>
       </c>
@@ -4877,7 +4899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21">
+    <row ht="21" r="288" spans="1:3">
       <c r="A288" s="5" t="s">
         <v>265</v>
       </c>
@@ -4888,7 +4910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21">
+    <row ht="21" r="289" spans="1:3">
       <c r="A289" s="5" t="s">
         <v>265</v>
       </c>
@@ -4899,7 +4921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21">
+    <row ht="21" r="290" spans="1:3">
       <c r="A290" s="5" t="s">
         <v>265</v>
       </c>
@@ -4910,7 +4932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21">
+    <row ht="21" r="291" spans="1:3">
       <c r="A291" s="5" t="s">
         <v>265</v>
       </c>
@@ -4921,7 +4943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21">
+    <row ht="21" r="292" spans="1:3">
       <c r="A292" s="5" t="s">
         <v>265</v>
       </c>
@@ -4932,7 +4954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21">
+    <row ht="21" r="293" spans="1:3">
       <c r="A293" s="5" t="s">
         <v>265</v>
       </c>
@@ -4943,15 +4965,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21">
+    <row ht="21" r="294" spans="1:3">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row ht="21" r="295" spans="1:3">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row ht="21" r="296" spans="1:3">
       <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
@@ -4962,7 +4984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21">
+    <row ht="21" r="297" spans="1:3">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
@@ -4973,7 +4995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
+    <row ht="21" r="298" spans="1:3">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
@@ -4984,7 +5006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21">
+    <row ht="21" r="299" spans="1:3">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
@@ -4995,7 +5017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21">
+    <row ht="21" r="300" spans="1:3">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
@@ -5006,7 +5028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
+    <row ht="21" r="301" spans="1:3">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5017,7 +5039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21">
+    <row ht="21" r="302" spans="1:3">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
@@ -5028,7 +5050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21">
+    <row ht="21" r="303" spans="1:3">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
@@ -5039,7 +5061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21">
+    <row ht="21" r="304" spans="1:3">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5050,7 +5072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21">
+    <row ht="21" r="305" spans="1:3">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5061,7 +5083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21">
+    <row ht="21" r="306" spans="1:3">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5072,7 +5094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21">
+    <row ht="21" r="307" spans="1:3">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5083,7 +5105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21">
+    <row ht="21" r="308" spans="1:3">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5094,7 +5116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21">
+    <row ht="21" r="309" spans="1:3">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5105,7 +5127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21">
+    <row ht="21" r="310" spans="1:3">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5116,7 +5138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21">
+    <row ht="21" r="311" spans="1:3">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5127,7 +5149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21">
+    <row ht="21" r="312" spans="1:3">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5138,7 +5160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21">
+    <row ht="21" r="313" spans="1:3">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5149,7 +5171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21">
+    <row ht="21" r="314" spans="1:3">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5160,7 +5182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21">
+    <row ht="21" r="315" spans="1:3">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5171,7 +5193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21">
+    <row ht="21" r="316" spans="1:3">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5182,7 +5204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21">
+    <row ht="21" r="317" spans="1:3">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5193,7 +5215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21">
+    <row ht="21" r="318" spans="1:3">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5204,7 +5226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21">
+    <row ht="21" r="319" spans="1:3">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5215,7 +5237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21">
+    <row ht="21" r="320" spans="1:3">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5226,7 +5248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21">
+    <row ht="21" r="321" spans="1:3">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5237,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21">
+    <row ht="21" r="322" spans="1:3">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5248,7 +5270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21">
+    <row ht="21" r="323" spans="1:3">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5259,7 +5281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21">
+    <row ht="21" r="324" spans="1:3">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5270,7 +5292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21">
+    <row ht="21" r="325" spans="1:3">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5281,7 +5303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21">
+    <row ht="21" r="326" spans="1:3">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5292,7 +5314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21">
+    <row ht="21" r="327" spans="1:3">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5303,7 +5325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21">
+    <row ht="21" r="328" spans="1:3">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5314,7 +5336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21">
+    <row ht="21" r="329" spans="1:3">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5325,7 +5347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21">
+    <row ht="21" r="330" spans="1:3">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
@@ -5336,7 +5358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21">
+    <row ht="21" r="331" spans="1:3">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
@@ -5347,7 +5369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21">
+    <row ht="21" r="332" spans="1:3">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -5358,7 +5380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
+    <row ht="21" r="333" spans="1:3">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -5369,15 +5391,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21">
+    <row ht="21" r="334" spans="1:3">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row ht="21" r="335" spans="1:3">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
+    <row ht="21" r="336" spans="1:3">
       <c r="A336" s="8" t="s">
         <v>324</v>
       </c>
@@ -5388,7 +5410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21">
+    <row ht="21" r="337" spans="1:3">
       <c r="A337" s="8" t="s">
         <v>324</v>
       </c>
@@ -5399,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21">
+    <row ht="21" r="338" spans="1:3">
       <c r="A338" s="8" t="s">
         <v>324</v>
       </c>
@@ -5410,7 +5432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21">
+    <row ht="21" r="339" spans="1:3">
       <c r="A339" s="8" t="s">
         <v>324</v>
       </c>
@@ -5421,7 +5443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21">
+    <row ht="21" r="340" spans="1:3">
       <c r="A340" s="8" t="s">
         <v>324</v>
       </c>
@@ -5432,7 +5454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21">
+    <row ht="21" r="341" spans="1:3">
       <c r="A341" s="8" t="s">
         <v>324</v>
       </c>
@@ -5443,7 +5465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
+    <row ht="21" r="342" spans="1:3">
       <c r="A342" s="8" t="s">
         <v>324</v>
       </c>
@@ -5454,7 +5476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21">
+    <row ht="21" r="343" spans="1:3">
       <c r="A343" s="8" t="s">
         <v>324</v>
       </c>
@@ -5465,7 +5487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
+    <row ht="21" r="344" spans="1:3">
       <c r="A344" s="8" t="s">
         <v>324</v>
       </c>
@@ -5476,7 +5498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21">
+    <row ht="21" r="345" spans="1:3">
       <c r="A345" s="8" t="s">
         <v>324</v>
       </c>
@@ -5487,7 +5509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21">
+    <row ht="21" r="346" spans="1:3">
       <c r="A346" s="8" t="s">
         <v>324</v>
       </c>
@@ -5498,7 +5520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21">
+    <row ht="21" r="347" spans="1:3">
       <c r="A347" s="8" t="s">
         <v>324</v>
       </c>
@@ -5509,7 +5531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21">
+    <row ht="21" r="348" spans="1:3">
       <c r="A348" s="8" t="s">
         <v>324</v>
       </c>
@@ -5520,7 +5542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21">
+    <row ht="21" r="349" spans="1:3">
       <c r="A349" s="8" t="s">
         <v>324</v>
       </c>
@@ -5531,7 +5553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21">
+    <row ht="21" r="350" spans="1:3">
       <c r="A350" s="8" t="s">
         <v>324</v>
       </c>
@@ -5542,7 +5564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21">
+    <row ht="21" r="351" spans="1:3">
       <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
@@ -5553,7 +5575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21">
+    <row ht="21" r="352" spans="1:3">
       <c r="A352" s="8" t="s">
         <v>324</v>
       </c>
@@ -5564,7 +5586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21">
+    <row ht="21" r="353" spans="1:3">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -5575,15 +5597,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
+    <row ht="21" r="354" spans="1:3">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
+    <row ht="21" r="355" spans="1:3">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:3" ht="21">
+    <row ht="21" r="356" spans="1:3">
       <c r="A356" s="8" t="s">
         <v>343</v>
       </c>
@@ -5594,7 +5616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21">
+    <row ht="21" r="357" spans="1:3">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -5605,7 +5627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21">
+    <row ht="21" r="358" spans="1:3">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5616,7 +5638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21">
+    <row ht="21" r="359" spans="1:3">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5627,7 +5649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21">
+    <row ht="21" r="360" spans="1:3">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5638,7 +5660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21">
+    <row ht="21" r="361" spans="1:3">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5649,7 +5671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21">
+    <row ht="21" r="362" spans="1:3">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5660,7 +5682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21">
+    <row ht="21" r="363" spans="1:3">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5671,7 +5693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21">
+    <row ht="21" r="364" spans="1:3">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5682,7 +5704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21">
+    <row ht="21" r="365" spans="1:3">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5693,7 +5715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21">
+    <row ht="21" r="366" spans="1:3">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5704,7 +5726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21">
+    <row ht="21" r="367" spans="1:3">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5715,7 +5737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21">
+    <row ht="21" r="368" spans="1:3">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5726,7 +5748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21">
+    <row ht="21" r="369" spans="1:3">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5737,7 +5759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21">
+    <row ht="21" r="370" spans="1:3">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5748,7 +5770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
+    <row ht="21" r="371" spans="1:3">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5759,7 +5781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21">
+    <row ht="21" r="372" spans="1:3">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5770,7 +5792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21">
+    <row ht="21" r="373" spans="1:3">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5781,7 +5803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21">
+    <row ht="21" r="374" spans="1:3">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5792,7 +5814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21">
+    <row ht="21" r="375" spans="1:3">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -5803,7 +5825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
+    <row ht="21" r="376" spans="1:3">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -5814,7 +5836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
+    <row ht="21" r="377" spans="1:3">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -5825,7 +5847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
+    <row ht="21" r="378" spans="1:3">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -5836,7 +5858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
+    <row ht="21" r="379" spans="1:3">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -5847,7 +5869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21">
+    <row ht="21" r="380" spans="1:3">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -5858,7 +5880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21">
+    <row ht="21" r="381" spans="1:3">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -5869,7 +5891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
+    <row ht="21" r="382" spans="1:3">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -5880,7 +5902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
+    <row ht="21" r="383" spans="1:3">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -5891,7 +5913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
+    <row ht="21" r="384" spans="1:3">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -5902,7 +5924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21">
+    <row ht="21" r="385" spans="1:3">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -5913,7 +5935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21">
+    <row ht="21" r="386" spans="1:3">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -5924,7 +5946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21">
+    <row ht="21" r="387" spans="1:3">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -5935,7 +5957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21">
+    <row ht="21" r="388" spans="1:3">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -5946,7 +5968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21">
+    <row ht="21" r="389" spans="1:3">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -5957,7 +5979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21">
+    <row ht="21" r="390" spans="1:3">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -5968,7 +5990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21">
+    <row ht="21" r="391" spans="1:3">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -5979,7 +6001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21">
+    <row ht="21" r="392" spans="1:3">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -5990,7 +6012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21">
+    <row ht="21" r="393" spans="1:3">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6001,7 +6023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21">
+    <row ht="21" r="394" spans="1:3">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6012,7 +6034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21">
+    <row ht="21" r="395" spans="1:3">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6023,7 +6045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21">
+    <row ht="21" r="396" spans="1:3">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6034,7 +6056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21">
+    <row ht="21" r="397" spans="1:3">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6045,7 +6067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21">
+    <row ht="21" r="398" spans="1:3">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6056,7 +6078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21">
+    <row ht="21" r="399" spans="1:3">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6067,15 +6089,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21">
+    <row ht="21" r="400" spans="1:3">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row ht="21" r="401" spans="1:3">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="1:3" ht="21">
+    <row ht="21" r="402" spans="1:3">
       <c r="A402" s="8" t="s">
         <v>387</v>
       </c>
@@ -6086,7 +6108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21">
+    <row ht="21" r="403" spans="1:3">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -6097,7 +6119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21">
+    <row ht="21" r="404" spans="1:3">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
@@ -6108,7 +6130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21">
+    <row ht="21" r="405" spans="1:3">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
@@ -6119,7 +6141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21">
+    <row ht="21" r="406" spans="1:3">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -6130,7 +6152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21">
+    <row ht="21" r="407" spans="1:3">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -6141,15 +6163,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21">
+    <row ht="21" r="408" spans="1:3">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="1:3" ht="21">
+    <row ht="21" r="409" spans="1:3">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="1:3" ht="21">
+    <row ht="21" r="410" spans="1:3">
       <c r="A410" s="5" t="s">
         <v>393</v>
       </c>
@@ -6160,7 +6182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="21">
+    <row ht="21" r="411" spans="1:3">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -6171,7 +6193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21">
+    <row ht="21" r="412" spans="1:3">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -6182,7 +6204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21">
+    <row ht="21" r="413" spans="1:3">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6193,7 +6215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21">
+    <row ht="21" r="414" spans="1:3">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6204,7 +6226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21">
+    <row ht="21" r="415" spans="1:3">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6215,7 +6237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21">
+    <row ht="21" r="416" spans="1:3">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6226,7 +6248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row ht="21" r="417" spans="1:3">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6237,7 +6259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row ht="21" r="418" spans="1:3">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6248,7 +6270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row ht="21" r="419" spans="1:3">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6259,7 +6281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row ht="21" r="420" spans="1:3">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6270,7 +6292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row ht="21" r="421" spans="1:3">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6281,7 +6303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row ht="21" r="422" spans="1:3">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6292,7 +6314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row ht="21" r="423" spans="1:3">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6303,7 +6325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row ht="21" r="424" spans="1:3">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6314,7 +6336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21">
+    <row ht="21" r="425" spans="1:3">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6325,7 +6347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row ht="21" r="426" spans="1:3">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6336,7 +6358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row ht="21" r="427" spans="1:3">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6347,7 +6369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21">
+    <row ht="21" r="428" spans="1:3">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6358,7 +6380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row ht="21" r="429" spans="1:3">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6369,7 +6391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row ht="21" r="430" spans="1:3">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6380,7 +6402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row ht="21" r="431" spans="1:3">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6391,7 +6413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row ht="21" r="432" spans="1:3">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6402,7 +6424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21">
+    <row ht="21" r="433" spans="1:3">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -6413,7 +6435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21">
+    <row ht="21" r="434" spans="1:3">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6424,7 +6446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21">
+    <row ht="21" r="435" spans="1:3">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6435,7 +6457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21">
+    <row ht="21" r="436" spans="1:3">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6446,7 +6468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21">
+    <row ht="21" r="437" spans="1:3">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6457,7 +6479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21">
+    <row ht="21" r="438" spans="1:3">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6468,7 +6490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21">
+    <row ht="21" r="439" spans="1:3">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6479,7 +6501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21">
+    <row ht="21" r="440" spans="1:3">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6490,7 +6512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21">
+    <row ht="21" r="441" spans="1:3">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6501,7 +6523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21">
+    <row ht="21" r="442" spans="1:3">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6512,7 +6534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21">
+    <row ht="21" r="443" spans="1:3">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6523,7 +6545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21">
+    <row ht="21" r="444" spans="1:3">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -6534,7 +6556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21">
+    <row ht="21" r="445" spans="1:3">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6545,7 +6567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21">
+    <row ht="21" r="446" spans="1:3">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6556,7 +6578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21">
+    <row ht="21" r="447" spans="1:3">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6567,7 +6589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21">
+    <row ht="21" r="448" spans="1:3">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -6578,7 +6600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21">
+    <row ht="21" r="449" spans="1:3">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -6589,7 +6611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21">
+    <row ht="21" r="450" spans="1:3">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6600,7 +6622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21">
+    <row ht="21" r="451" spans="1:3">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -6611,7 +6633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21">
+    <row ht="21" r="452" spans="1:3">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -6622,7 +6644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21">
+    <row ht="21" r="453" spans="1:3">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -6633,7 +6655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21">
+    <row ht="21" r="454" spans="1:3">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -6644,7 +6666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21">
+    <row ht="21" r="455" spans="1:3">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -6655,7 +6677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21">
+    <row ht="21" r="456" spans="1:3">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -6666,7 +6688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21">
+    <row ht="21" r="457" spans="1:3">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -6677,7 +6699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21">
+    <row ht="21" r="458" spans="1:3">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -6688,7 +6710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21">
+    <row ht="21" r="459" spans="1:3">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -6699,7 +6721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21">
+    <row ht="21" r="460" spans="1:3">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -6710,7 +6732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21">
+    <row ht="21" r="461" spans="1:3">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -6721,7 +6743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
+    <row ht="21" r="462" spans="1:3">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -6732,7 +6754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21">
+    <row ht="21" r="463" spans="1:3">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -6743,7 +6765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21">
+    <row ht="21" r="464" spans="1:3">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -6754,7 +6776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
+    <row ht="21" r="465" spans="1:3">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -6765,7 +6787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21">
+    <row ht="21" r="466" spans="1:3">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -6776,7 +6798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21">
+    <row ht="21" r="467" spans="1:3">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -6787,7 +6809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21">
+    <row ht="21" r="468" spans="1:3">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -6798,7 +6820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
+    <row ht="21" r="469" spans="1:3">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -6809,16 +6831,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21">
+    <row ht="21" r="470" spans="1:3">
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row ht="21" r="471" spans="1:3">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
+    <row ht="21" r="472" spans="1:3">
       <c r="A472" s="5" t="s">
         <v>453</v>
       </c>
@@ -6829,7 +6851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21">
+    <row ht="21" r="473" spans="1:3">
       <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
@@ -6840,7 +6862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
+    <row ht="21" r="474" spans="1:3">
       <c r="A474" s="5" t="s">
         <v>453</v>
       </c>
@@ -6851,7 +6873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21">
+    <row ht="21" r="475" spans="1:3">
       <c r="A475" s="5" t="s">
         <v>453</v>
       </c>
@@ -6862,7 +6884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21">
+    <row ht="21" r="476" spans="1:3">
       <c r="A476" s="5" t="s">
         <v>453</v>
       </c>
@@ -6873,7 +6895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21">
+    <row ht="21" r="477" spans="1:3">
       <c r="A477" s="5" t="s">
         <v>453</v>
       </c>
@@ -6884,7 +6906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21">
+    <row ht="21" r="478" spans="1:3">
       <c r="A478" s="5" t="s">
         <v>453</v>
       </c>
@@ -6895,7 +6917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="21">
+    <row ht="21" r="479" spans="1:3">
       <c r="A479" s="5" t="s">
         <v>453</v>
       </c>
@@ -6906,7 +6928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21">
+    <row ht="21" r="480" spans="1:3">
       <c r="A480" s="5" t="s">
         <v>453</v>
       </c>
@@ -6917,7 +6939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21">
+    <row ht="21" r="481" spans="1:3">
       <c r="A481" s="5" t="s">
         <v>453</v>
       </c>

--- a/Applications/LoveBabbar Questions.xlsx
+++ b/Applications/LoveBabbar Questions.xlsx
@@ -1880,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="topLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1990,7 +1990,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row ht="21" r="13" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row ht="21" r="16" spans="1:3">
